--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.55599999999999</v>
+        <v>16.457</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.256099999999996</v>
+        <v>-6.581199999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.778199999999998</v>
+        <v>-7.738999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.545899999999996</v>
+        <v>-8.3287</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.345799999999996</v>
+        <v>-7.387599999999996</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,10 +862,10 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.353599999999995</v>
+        <v>-8.610699999999992</v>
       </c>
       <c r="E25" t="n">
-        <v>16.69709999999999</v>
+        <v>15.93449999999999</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.462700000000007</v>
+        <v>-8.649000000000004</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.5537</v>
+        <v>16.25919999999999</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.225799999999996</v>
+        <v>-6.661899999999994</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.4821</v>
+        <v>16.30260000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.97609999999999</v>
+        <v>15.6461</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.2641</v>
+        <v>17.2845</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.3015</v>
+        <v>17.0659</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.0027</v>
+        <v>16.8658</v>
       </c>
     </row>
     <row r="53">
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.1012</v>
+        <v>-6.120799999999997</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5932</v>
+        <v>16.57170000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.02290000000001</v>
+        <v>15.6234</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.677599999999996</v>
+        <v>-8.18489999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>16.27560000000001</v>
+        <v>16.8519</v>
       </c>
     </row>
     <row r="58">
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.4983</v>
+        <v>-8.344400000000002</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.046099999999996</v>
+        <v>-7.216099999999995</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.41520000000001</v>
+        <v>17.2545</v>
       </c>
     </row>
     <row r="74">
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-5.840299999999998</v>
+        <v>-5.9655</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.9199</v>
+        <v>-8.881799999999997</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.23700000000001</v>
+        <v>17.20460000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.33249999999999</v>
+        <v>16.13089999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.872799999999997</v>
+        <v>-5.738699999999995</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.65270000000002</v>
+        <v>19.00240000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.464599999999997</v>
+        <v>-6.223299999999997</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
